--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>NAME</t>
   </si>
@@ -78,28 +78,52 @@
     <t>item6</t>
   </si>
   <si>
-    <t>Gauntlet.fbx</t>
-  </si>
-  <si>
-    <t>PlateArmor.fbx</t>
-  </si>
-  <si>
-    <t>PlateBoots.fbx</t>
-  </si>
-  <si>
-    <t>PlateLower.fbx</t>
-  </si>
-  <si>
-    <t>LeatherGlove.fbx</t>
-  </si>
-  <si>
-    <t>LeatherArmor.fbx</t>
-  </si>
-  <si>
-    <t>LeatherLower.fbx</t>
-  </si>
-  <si>
-    <t>LeatherBoots.fbx</t>
+    <t>Gauntlet</t>
+  </si>
+  <si>
+    <t>glove00</t>
+  </si>
+  <si>
+    <t>PlateArmor</t>
+  </si>
+  <si>
+    <t>armor00</t>
+  </si>
+  <si>
+    <t>PlateBoots</t>
+  </si>
+  <si>
+    <t>boot00</t>
+  </si>
+  <si>
+    <t>PlateLower</t>
+  </si>
+  <si>
+    <t>lower00</t>
+  </si>
+  <si>
+    <t>LeatherGlove</t>
+  </si>
+  <si>
+    <t>glove01</t>
+  </si>
+  <si>
+    <t>LeatherArmor</t>
+  </si>
+  <si>
+    <t>armor01</t>
+  </si>
+  <si>
+    <t>LeatherLower</t>
+  </si>
+  <si>
+    <t>lower01</t>
+  </si>
+  <si>
+    <t>LeatherBoots</t>
+  </si>
+  <si>
+    <t>boot01</t>
   </si>
 </sst>
 </file>
@@ -111,10 +135,12 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -628,12 +654,12 @@
         <v>300.0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -657,12 +683,12 @@
         <v>300.0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>0.0</v>
@@ -686,18 +712,18 @@
         <v>300.0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
       </c>
       <c r="C12" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D12" s="1">
         <v>1.0</v>
@@ -715,12 +741,12 @@
         <v>300.0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -744,12 +770,12 @@
         <v>300.0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>0.0</v>
@@ -773,12 +799,12 @@
         <v>300.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -802,12 +828,12 @@
         <v>300.0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -831,7 +857,7 @@
         <v>300.0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -78,28 +78,28 @@
     <t>item6</t>
   </si>
   <si>
-    <t>Gauntlet.fbx</t>
-  </si>
-  <si>
-    <t>PlateArmor.fbx</t>
-  </si>
-  <si>
-    <t>PlateBoots.fbx</t>
-  </si>
-  <si>
-    <t>PlateLower.fbx</t>
-  </si>
-  <si>
-    <t>LeatherGlove.fbx</t>
-  </si>
-  <si>
-    <t>LeatherArmor.fbx</t>
-  </si>
-  <si>
-    <t>LeatherLower.fbx</t>
-  </si>
-  <si>
-    <t>LeatherBoots.fbx</t>
+    <t>Gauntlet</t>
+  </si>
+  <si>
+    <t>PlateArmor</t>
+  </si>
+  <si>
+    <t>PlateBoots</t>
+  </si>
+  <si>
+    <t>PlateLower</t>
+  </si>
+  <si>
+    <t>LeatherGlove</t>
+  </si>
+  <si>
+    <t>LeatherArmor</t>
+  </si>
+  <si>
+    <t>LeatherLower</t>
+  </si>
+  <si>
+    <t>LeatherBoots</t>
   </si>
 </sst>
 </file>
@@ -111,10 +111,12 @@
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color rgb="FF000000"/>

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>NAME</t>
   </si>
@@ -124,6 +124,57 @@
   </si>
   <si>
     <t>boot01</t>
+  </si>
+  <si>
+    <t>test00</t>
+  </si>
+  <si>
+    <t>test01</t>
+  </si>
+  <si>
+    <t>test02</t>
+  </si>
+  <si>
+    <t>test03</t>
+  </si>
+  <si>
+    <t>test04</t>
+  </si>
+  <si>
+    <t>test05</t>
+  </si>
+  <si>
+    <t>test06</t>
+  </si>
+  <si>
+    <t>test07</t>
+  </si>
+  <si>
+    <t>test08</t>
+  </si>
+  <si>
+    <t>test09</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>test16</t>
   </si>
 </sst>
 </file>
@@ -860,23 +911,499 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H28" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1"/>

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
   <si>
     <t>NAME</t>
   </si>
@@ -175,6 +175,15 @@
   </si>
   <si>
     <t>test16</t>
+  </si>
+  <si>
+    <t>NormalReinforce</t>
+  </si>
+  <si>
+    <t>MediumReinforce</t>
+  </si>
+  <si>
+    <t>HighReinForce</t>
   </si>
 </sst>
 </file>
@@ -1404,9 +1413,93 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H35" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
     <row r="39" ht="15.75" customHeight="1"/>

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>NAME</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
   <si>
     <t>IMAGENAME</t>
@@ -484,10 +487,13 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>1.0</v>
@@ -510,13 +516,16 @@
       <c r="H2" s="1">
         <v>100.0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
+      <c r="I2" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>1.0</v>
@@ -539,13 +548,16 @@
       <c r="H3" s="1">
         <v>200.0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
+      <c r="I3" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>1.0</v>
@@ -568,13 +580,16 @@
       <c r="H4" s="1">
         <v>300.0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
+      <c r="I4" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>2.0</v>
@@ -597,13 +612,16 @@
       <c r="H5" s="1">
         <v>20.0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>2.0</v>
@@ -626,13 +644,16 @@
       <c r="H6" s="1">
         <v>30.0</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
@@ -655,13 +676,16 @@
       <c r="H7" s="1">
         <v>40.0</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
@@ -684,13 +708,16 @@
       <c r="H8" s="1">
         <v>50.0</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>0.0</v>
@@ -713,13 +740,16 @@
       <c r="H9" s="1">
         <v>300.0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
+      <c r="I9" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>0.0</v>
@@ -742,13 +772,16 @@
       <c r="H10" s="1">
         <v>300.0</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>23</v>
+      <c r="I10" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>0.0</v>
@@ -771,13 +804,16 @@
       <c r="H11" s="1">
         <v>300.0</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>25</v>
+      <c r="I11" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1">
         <v>0.0</v>
@@ -800,13 +836,16 @@
       <c r="H12" s="1">
         <v>300.0</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
+      <c r="I12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1">
         <v>0.0</v>
@@ -829,13 +868,16 @@
       <c r="H13" s="1">
         <v>300.0</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>29</v>
+      <c r="I13" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1">
         <v>0.0</v>
@@ -858,13 +900,16 @@
       <c r="H14" s="1">
         <v>300.0</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>31</v>
+      <c r="I14" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>0.0</v>
@@ -887,13 +932,16 @@
       <c r="H15" s="1">
         <v>300.0</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>33</v>
+      <c r="I15" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>0.0</v>
@@ -916,13 +964,16 @@
       <c r="H16" s="1">
         <v>300.0</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>35</v>
+      <c r="I16" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>1.0</v>
@@ -945,13 +996,16 @@
       <c r="H17" s="1">
         <v>100.0</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>10</v>
+      <c r="I17" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1">
         <v>1.0</v>
@@ -974,13 +1028,16 @@
       <c r="H18" s="1">
         <v>100.0</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>10</v>
+      <c r="I18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
         <v>1.0</v>
@@ -1003,13 +1060,16 @@
       <c r="H19" s="1">
         <v>100.0</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>10</v>
+      <c r="I19" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1">
         <v>1.0</v>
@@ -1032,13 +1092,16 @@
       <c r="H20" s="1">
         <v>100.0</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>10</v>
+      <c r="I20" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
         <v>1.0</v>
@@ -1061,13 +1124,16 @@
       <c r="H21" s="1">
         <v>100.0</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>10</v>
+      <c r="I21" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1">
         <v>1.0</v>
@@ -1090,13 +1156,16 @@
       <c r="H22" s="1">
         <v>100.0</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>10</v>
+      <c r="I22" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1">
         <v>1.0</v>
@@ -1119,13 +1188,16 @@
       <c r="H23" s="1">
         <v>100.0</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>10</v>
+      <c r="I23" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B24" s="1">
         <v>1.0</v>
@@ -1148,13 +1220,16 @@
       <c r="H24" s="1">
         <v>100.0</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>10</v>
+      <c r="I24" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1">
         <v>1.0</v>
@@ -1177,13 +1252,16 @@
       <c r="H25" s="1">
         <v>100.0</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>10</v>
+      <c r="I25" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1">
         <v>1.0</v>
@@ -1206,13 +1284,16 @@
       <c r="H26" s="1">
         <v>100.0</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>10</v>
+      <c r="I26" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1">
         <v>1.0</v>
@@ -1235,13 +1316,16 @@
       <c r="H27" s="1">
         <v>100.0</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>10</v>
+      <c r="I27" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1">
         <v>1.0</v>
@@ -1264,13 +1348,16 @@
       <c r="H28" s="1">
         <v>100.0</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>10</v>
+      <c r="I28" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="1">
         <v>1.0</v>
@@ -1293,13 +1380,16 @@
       <c r="H29" s="1">
         <v>100.0</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>10</v>
+      <c r="I29" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="1">
         <v>1.0</v>
@@ -1322,13 +1412,16 @@
       <c r="H30" s="1">
         <v>100.0</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>10</v>
+      <c r="I30" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1">
         <v>1.0</v>
@@ -1351,13 +1444,16 @@
       <c r="H31" s="1">
         <v>100.0</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>10</v>
+      <c r="I31" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
         <v>1.0</v>
@@ -1380,13 +1476,16 @@
       <c r="H32" s="1">
         <v>100.0</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>10</v>
+      <c r="I32" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1">
         <v>1.0</v>
@@ -1409,13 +1508,16 @@
       <c r="H33" s="1">
         <v>100.0</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>10</v>
+      <c r="I33" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1">
         <v>2.0</v>
@@ -1438,13 +1540,16 @@
       <c r="H34" s="1">
         <v>200.0</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>16</v>
+      <c r="I34" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="1">
         <v>2.0</v>
@@ -1467,13 +1572,16 @@
       <c r="H35" s="1">
         <v>300.0</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>16</v>
+      <c r="I35" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B36" s="1">
         <v>2.0</v>
@@ -1496,8 +1604,11 @@
       <c r="H36" s="1">
         <v>400.0</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>16</v>
+      <c r="I36" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>NAME</t>
   </si>
@@ -187,6 +187,36 @@
   </si>
   <si>
     <t>HighReinForce</t>
+  </si>
+  <si>
+    <t>LeatherHelmet</t>
+  </si>
+  <si>
+    <t>PlateHelmet</t>
+  </si>
+  <si>
+    <t>JusinArmor</t>
+  </si>
+  <si>
+    <t>JusinBoots</t>
+  </si>
+  <si>
+    <t>JusinGlove</t>
+  </si>
+  <si>
+    <t>JusinHelmet</t>
+  </si>
+  <si>
+    <t>JusinLower</t>
+  </si>
+  <si>
+    <t>NoviceAxe</t>
+  </si>
+  <si>
+    <t>RedAxe</t>
+  </si>
+  <si>
+    <t>GoldAxe</t>
   </si>
 </sst>
 </file>
@@ -456,7 +486,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="25" width="10.56"/>
+    <col customWidth="1" min="1" max="1" width="13.22"/>
+    <col customWidth="1" min="2" max="25" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -729,13 +760,13 @@
         <v>1.0</v>
       </c>
       <c r="E9" s="1">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="F9" s="1">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="G9" s="1">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H9" s="1">
         <v>300.0</v>
@@ -761,7 +792,7 @@
         <v>1.0</v>
       </c>
       <c r="E10" s="1">
-        <v>20.0</v>
+        <v>150.0</v>
       </c>
       <c r="F10" s="1">
         <v>0.0</v>
@@ -793,7 +824,7 @@
         <v>1.0</v>
       </c>
       <c r="E11" s="1">
-        <v>20.0</v>
+        <v>70.0</v>
       </c>
       <c r="F11" s="1">
         <v>0.0</v>
@@ -825,13 +856,13 @@
         <v>1.0</v>
       </c>
       <c r="E12" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="1">
         <v>20.0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>10.0</v>
       </c>
       <c r="H12" s="1">
         <v>300.0</v>
@@ -857,13 +888,13 @@
         <v>1.0</v>
       </c>
       <c r="E13" s="1">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="G13" s="1">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="H13" s="1">
         <v>300.0</v>
@@ -889,7 +920,7 @@
         <v>1.0</v>
       </c>
       <c r="E14" s="1">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="F14" s="1">
         <v>0.0</v>
@@ -921,7 +952,7 @@
         <v>1.0</v>
       </c>
       <c r="E15" s="1">
-        <v>20.0</v>
+        <v>100.0</v>
       </c>
       <c r="F15" s="1">
         <v>0.0</v>
@@ -953,13 +984,13 @@
         <v>1.0</v>
       </c>
       <c r="E16" s="1">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="F16" s="1">
         <v>0.0</v>
       </c>
       <c r="G16" s="1">
-        <v>10.0</v>
+        <v>5.0</v>
       </c>
       <c r="H16" s="1">
         <v>300.0</v>
@@ -1611,16 +1642,326 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="H46" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="47" ht="15.75" customHeight="1"/>
     <row r="48" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="80">
   <si>
     <t>NAME</t>
   </si>
@@ -129,94 +129,133 @@
     <t>boot01</t>
   </si>
   <si>
-    <t>test00</t>
-  </si>
-  <si>
-    <t>test01</t>
-  </si>
-  <si>
-    <t>test02</t>
-  </si>
-  <si>
-    <t>test03</t>
-  </si>
-  <si>
-    <t>test04</t>
-  </si>
-  <si>
-    <t>test05</t>
-  </si>
-  <si>
-    <t>test06</t>
-  </si>
-  <si>
-    <t>test07</t>
-  </si>
-  <si>
-    <t>test08</t>
-  </si>
-  <si>
-    <t>test09</t>
-  </si>
-  <si>
-    <t>test10</t>
-  </si>
-  <si>
-    <t>test11</t>
-  </si>
-  <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test13</t>
-  </si>
-  <si>
-    <t>test14</t>
-  </si>
-  <si>
-    <t>test15</t>
-  </si>
-  <si>
-    <t>test16</t>
+    <t>TrashPotion0</t>
+  </si>
+  <si>
+    <t>TrashPotion1</t>
+  </si>
+  <si>
+    <t>TrashPotion2</t>
+  </si>
+  <si>
+    <t>TrashPotion3</t>
+  </si>
+  <si>
+    <t>TrashPotion4</t>
+  </si>
+  <si>
+    <t>TrashPotion5</t>
+  </si>
+  <si>
+    <t>TrashPotion6</t>
+  </si>
+  <si>
+    <t>TrashPotion7</t>
+  </si>
+  <si>
+    <t>TrashPotion8</t>
+  </si>
+  <si>
+    <t>TrashPotion9</t>
+  </si>
+  <si>
+    <t>TrashPotion10</t>
+  </si>
+  <si>
+    <t>TrashPotion11</t>
+  </si>
+  <si>
+    <t>TrashPotion12</t>
+  </si>
+  <si>
+    <t>TrashPotion13</t>
+  </si>
+  <si>
+    <t>TrashPotion14</t>
+  </si>
+  <si>
+    <t>TrashPotion15</t>
+  </si>
+  <si>
+    <t>TrashPotion16</t>
   </si>
   <si>
     <t>NormalReinforce</t>
   </si>
   <si>
+    <t>Reinforce00</t>
+  </si>
+  <si>
     <t>MediumReinforce</t>
   </si>
   <si>
+    <t>Reinforce01</t>
+  </si>
+  <si>
     <t>HighReinForce</t>
   </si>
   <si>
+    <t>Reinforce02</t>
+  </si>
+  <si>
     <t>LeatherHelmet</t>
   </si>
   <si>
+    <t>helmet01</t>
+  </si>
+  <si>
     <t>PlateHelmet</t>
   </si>
   <si>
+    <t>helmet00</t>
+  </si>
+  <si>
     <t>JusinArmor</t>
   </si>
   <si>
+    <t>armor02</t>
+  </si>
+  <si>
     <t>JusinBoots</t>
   </si>
   <si>
+    <t>boot02</t>
+  </si>
+  <si>
     <t>JusinGlove</t>
   </si>
   <si>
+    <t>glove02</t>
+  </si>
+  <si>
     <t>JusinHelmet</t>
   </si>
   <si>
+    <t>helmet02</t>
+  </si>
+  <si>
     <t>JusinLower</t>
   </si>
   <si>
+    <t>lower02</t>
+  </si>
+  <si>
     <t>NoviceAxe</t>
   </si>
   <si>
+    <t>axe00</t>
+  </si>
+  <si>
     <t>RedAxe</t>
   </si>
   <si>
+    <t>axe01</t>
+  </si>
+  <si>
     <t>GoldAxe</t>
+  </si>
+  <si>
+    <t>axe02</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1230,7 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -1223,7 +1262,7 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
@@ -1255,7 +1294,7 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
@@ -1287,7 +1326,7 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -1319,7 +1358,7 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
@@ -1351,7 +1390,7 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -1383,7 +1422,7 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -1415,7 +1454,7 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -1447,7 +1486,7 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -1479,7 +1518,7 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -1511,7 +1550,7 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -1543,7 +1582,7 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -1575,12 +1614,12 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B35" s="1">
         <v>2.0</v>
@@ -1607,12 +1646,12 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B36" s="1">
         <v>2.0</v>
@@ -1639,12 +1678,12 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1">
         <v>0.0</v>
@@ -1671,12 +1710,12 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B38" s="1">
         <v>0.0</v>
@@ -1703,12 +1742,12 @@
         <v>0.0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B39" s="1">
         <v>0.0</v>
@@ -1735,12 +1774,12 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1">
         <v>0.0</v>
@@ -1767,12 +1806,12 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1">
         <v>0.0</v>
@@ -1799,12 +1838,12 @@
         <v>0.0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B42" s="1">
         <v>0.0</v>
@@ -1831,12 +1870,12 @@
         <v>0.0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B43" s="1">
         <v>0.0</v>
@@ -1863,12 +1902,12 @@
         <v>0.0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B44" s="1">
         <v>0.0</v>
@@ -1895,12 +1934,12 @@
         <v>0.0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B45" s="1">
         <v>0.0</v>
@@ -1927,12 +1966,12 @@
         <v>0.0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B46" s="1">
         <v>0.0</v>
@@ -1959,7 +1998,7 @@
         <v>0.0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1"/>

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -575,7 +575,7 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="1">
-        <v>20.0</v>
+        <v>500.0</v>
       </c>
       <c r="F2" s="1">
         <v>0.0</v>
@@ -607,7 +607,7 @@
         <v>1.0</v>
       </c>
       <c r="E3" s="1">
-        <v>30.0</v>
+        <v>1000.0</v>
       </c>
       <c r="F3" s="1">
         <v>0.0</v>
@@ -639,7 +639,7 @@
         <v>1.0</v>
       </c>
       <c r="E4" s="1">
-        <v>40.0</v>
+        <v>2000.0</v>
       </c>
       <c r="F4" s="1">
         <v>0.0</v>
@@ -1922,7 +1922,7 @@
         <v>0.0</v>
       </c>
       <c r="F44" s="1">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="G44" s="1">
         <v>0.0</v>
@@ -1954,7 +1954,7 @@
         <v>0.0</v>
       </c>
       <c r="F45" s="1">
-        <v>300.0</v>
+        <v>150.0</v>
       </c>
       <c r="G45" s="1">
         <v>0.0</v>
@@ -1986,7 +1986,7 @@
         <v>0.0</v>
       </c>
       <c r="F46" s="1">
-        <v>600.0</v>
+        <v>300.0</v>
       </c>
       <c r="G46" s="1">
         <v>0.0</v>
